--- a/outputFile/lhel4.xlsx
+++ b/outputFile/lhel4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>lhel_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>lhel_2</t>
+          <t>lhel_only</t>
         </is>
       </c>
     </row>
@@ -451,12 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.5531914893617021, 17], [0.46153846153846156, 13], [0.3225806451612903, 9]]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[[0.27586206896551724, 8], [0.15384615384615383, 7], [0.08695652173913045, 5]]</t>
+          <t>[[0.558139534883721, 14], [0.4736842105263158, 12], [0.33333333333333337, 8]]</t>
         </is>
       </c>
     </row>
@@ -466,12 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.5128205128205129, 12], [0.3225806451612903, 9], [0.22222222222222224, 7]]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[[0.22222222222222224, 7], [0.0909090909090909, 4], [0.09523809523809523, 3]]</t>
+          <t>[[0.42424242424242425, 9], [0.15384615384615383, 7], [0.0909090909090909, 4]]</t>
         </is>
       </c>
     </row>
@@ -481,12 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[0.39999999999999997, 11], [0.21428571428571427, 8], [0.23076923076923078, 6]]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[[0.0909090909090909, 4], [0.0909090909090909, 4], [0, 3]]</t>
+          <t>[[0.15999999999999998, 6], [0.0909090909090909, 4], [0, 3]]</t>
         </is>
       </c>
     </row>
